--- a/Ch07Tsk02/Ch07Tsk02.xlsx
+++ b/Ch07Tsk02/Ch07Tsk02.xlsx
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,12 +106,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,18 +147,20 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,289 +466,289 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="A1:D25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="9" style="3"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="43.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="9" style="4"/>
+    <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:D25" si="0">B5+C5</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="9">
+        <v>288</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:D24" si="0">B5+C5</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9">
+        <v>312</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9">
+        <v>240</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1680</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9">
+        <v>331.2</v>
+      </c>
+      <c r="D11" s="4">
+        <f>B11+C11</f>
+        <v>331.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="B13" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
+        <v>168</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2304</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2304</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1286.4000000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>1286.4000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C18" s="9">
+        <v>532.79999999999995</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>532.79999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>150</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>240</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3">
-        <f>B11+C11</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
+        <v>722.4</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>722.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9">
+        <v>194.4</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>194.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>300</v>
-      </c>
-      <c r="C16" s="3">
-        <v>300</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3">
-        <v>240</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3">
-        <v>140</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>70</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3">
-        <v>60</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="9">
+        <v>1800</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="3">
+      <c r="C24" s="9">
+        <v>50.4</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="4">
         <f>SUM(D5:D24)</f>
-        <v>1624</v>
+        <v>12265.199999999997</v>
       </c>
     </row>
   </sheetData>
